--- a/biology/Botanique/Hypnanae/Hypnanae.xlsx
+++ b/biology/Botanique/Hypnanae/Hypnanae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hypnanae sont un super-ordre de mousses de la classe des Bryopsida, comprenant notamment l'ordre des Hypnales. Hypnum est le genre type.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des ordres selon The Taxonomicon  (25 mai 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des ordres selon The Taxonomicon  (25 mai 2021) :
 Hookeriales
 Hypnales
-Selon Tropicos                                           (25 mai 2021)[1] :
+Selon Tropicos                                           (25 mai 2021) :
 Baigulia Ignatov, Karasev &amp; Sinitsa Arctoa 20: 53 2011
 Baiguliella Ignatov, Karasev &amp; Sinitsa Arctoa 20: 63 2011
 Bryokhutuliinia Ignatov J. Hattori Bot. Lab. 71: 379 1992
@@ -524,7 +538,7 @@
 Hygrohypnidium Kirchh. Centralbl. Mineral., Abt. B, Geol. Paläontol. 1936: 339 1936
 Hypnales W.R. Buck &amp; Vitt Taxon 35: 33 1986
 Hypnodendrales N.E. Bell, A.E. Newton &amp; D. Quandt Bryologist 110: 554 2007
-Hypopterygiales Goffinet Nat. Commun. 10: 1485 [8] 2019
+Hypopterygiales Goffinet Nat. Commun. 10: 1485  2019
 Leucodontales W.R. Buck &amp; Vitt Taxon 35: 34 1986
 Palaeodichelyma Ignatov &amp; Shcherb. Syst. Assoc. Special Vol. 71: 327 2007
 Palaeohypnum Steere Amer. Midl. Naturalist 36: 314 1946
@@ -558,7 +572,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) William R. Buck, Cymon J. Cox, A. Jonathan Shaw et Bernard Goffinet, « Ordinal relationships of pleurocarpous mosses, with special emphasis on the Hookeriales », Systematics and Biodiversity, vol. 2, no 2,‎ 1er novembre 2004, p. 140 (ISSN 1477-2000, DOI 10.1017/S1477200004001410, lire en ligne, consulté le 25 mai 2021)</t>
         </is>
